--- a/DnaRepairSpreadsheetParser/test/exampleData/minAssayAnnotationSpreadsheets/Broad Institute_jspoon_part_2.xlsx
+++ b/DnaRepairSpreadsheetParser/test/exampleData/minAssayAnnotationSpreadsheets/Broad Institute_jspoon_part_2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="450" windowWidth="14940" windowHeight="8970"/>
@@ -32,7 +32,7 @@
     <definedName name="readout_type">'Assay Definition'!$S$90:$S$100</definedName>
     <definedName name="species_name">'Assay Definition'!$M$90:$M$139</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -3448,11 +3448,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3561,13 +3561,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3578,6 +3571,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3668,6 +3668,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3702,6 +3703,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3877,24 +3879,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BH254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2565" ySplit="4545" topLeftCell="L21" activePane="bottomRight"/>
+      <pane xSplit="2565" ySplit="4545" topLeftCell="A19" activePane="topRight"/>
       <selection activeCell="S27" sqref="S27"/>
-      <selection pane="topRight" activeCell="AB2" sqref="AB2"/>
+      <selection pane="topRight" activeCell="G2" sqref="G2"/>
       <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
-      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
+      <selection pane="bottomRight" activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="28" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="25" customWidth="1"/>
     <col min="11" max="35" width="20.7109375" customWidth="1"/>
     <col min="36" max="37" width="18.42578125" customWidth="1"/>
     <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
@@ -3909,7 +3911,7 @@
     <col min="54" max="54" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="3" customFormat="1" ht="156.75" customHeight="1">
+    <row r="1" spans="1:60" s="3" customFormat="1" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3937,7 +3939,7 @@
       <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="5" t="s">
@@ -3949,77 +3951,77 @@
       <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23" t="s">
+      <c r="O1" s="29"/>
+      <c r="P1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
       <c r="U1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="V1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="23"/>
+      <c r="W1" s="29"/>
       <c r="X1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="Y1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="21" t="s">
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="22" t="s">
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="28" t="s">
         <v>1059</v>
       </c>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="22"/>
-      <c r="AW1" s="22"/>
-      <c r="AX1" s="22"/>
-      <c r="AY1" s="22"/>
-      <c r="AZ1" s="22"/>
-      <c r="BA1" s="22"/>
-      <c r="BB1" s="22"/>
-      <c r="BC1" s="22" t="s">
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="28"/>
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28"/>
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="28"/>
+      <c r="AW1" s="28"/>
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="28"/>
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="28"/>
+      <c r="BB1" s="28"/>
+      <c r="BC1" s="28" t="s">
         <v>1060</v>
       </c>
-      <c r="BD1" s="22"/>
-      <c r="BE1" s="22"/>
-      <c r="BF1" s="22"/>
-      <c r="BG1" s="22"/>
-      <c r="BH1" s="22"/>
-    </row>
-    <row r="2" spans="1:60" s="4" customFormat="1" ht="57.75" customHeight="1">
+      <c r="BD1" s="28"/>
+      <c r="BE1" s="28"/>
+      <c r="BF1" s="28"/>
+      <c r="BG1" s="28"/>
+      <c r="BH1" s="28"/>
+    </row>
+    <row r="2" spans="1:60" s="4" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -4039,7 +4041,7 @@
         <v>24</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>25</v>
@@ -4047,7 +4049,7 @@
       <c r="I2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="23" t="s">
         <v>27</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -4198,7 +4200,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>114</v>
       </c>
@@ -4227,7 +4229,7 @@
       <c r="I3" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="24">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K3" s="10" t="s">
@@ -4374,7 +4376,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>114</v>
       </c>
@@ -4389,7 +4391,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="27"/>
+      <c r="J4" s="24"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
@@ -4424,7 +4426,7 @@
       <c r="BF4" s="7"/>
       <c r="BG4" s="8"/>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>118</v>
       </c>
@@ -4453,7 +4455,7 @@
       <c r="I5" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="24">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K5" s="10" t="s">
@@ -4600,7 +4602,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>118</v>
       </c>
@@ -4615,7 +4617,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="15"/>
-      <c r="J6" s="27"/>
+      <c r="J6" s="24"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
@@ -4648,7 +4650,7 @@
       <c r="BF6" s="7"/>
       <c r="BG6" s="8"/>
     </row>
-    <row r="7" spans="1:60" ht="12" customHeight="1">
+    <row r="7" spans="1:60" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>119</v>
       </c>
@@ -4677,7 +4679,7 @@
       <c r="I7" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="24">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K7" s="10" t="s">
@@ -4824,7 +4826,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="8" spans="1:60" ht="12" customHeight="1">
+    <row r="8" spans="1:60" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>119</v>
       </c>
@@ -4839,7 +4841,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="27"/>
+      <c r="J8" s="24"/>
       <c r="K8" s="10"/>
       <c r="L8" s="15"/>
       <c r="M8" s="10"/>
@@ -4872,7 +4874,7 @@
       <c r="BF8" s="7"/>
       <c r="BG8" s="8"/>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>120</v>
       </c>
@@ -4901,7 +4903,7 @@
       <c r="I9" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="24">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K9" s="10" t="s">
@@ -5048,7 +5050,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>120</v>
       </c>
@@ -5063,7 +5065,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="27"/>
+      <c r="J10" s="24"/>
       <c r="K10" s="10"/>
       <c r="L10" s="15"/>
       <c r="M10" s="10"/>
@@ -5096,7 +5098,7 @@
       <c r="BF10" s="7"/>
       <c r="BG10" s="8"/>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>121</v>
       </c>
@@ -5125,7 +5127,7 @@
       <c r="I11" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="24">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K11" s="10" t="s">
@@ -5272,7 +5274,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>121</v>
       </c>
@@ -5287,7 +5289,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="27"/>
+      <c r="J12" s="24"/>
       <c r="K12" s="10"/>
       <c r="L12" s="15"/>
       <c r="M12" s="10"/>
@@ -5320,7 +5322,7 @@
       <c r="BF12" s="7"/>
       <c r="BG12" s="8"/>
     </row>
-    <row r="13" spans="1:60">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>122</v>
       </c>
@@ -5349,7 +5351,7 @@
       <c r="I13" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="24">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K13" s="10" t="s">
@@ -5496,7 +5498,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="14" spans="1:60">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>122</v>
       </c>
@@ -5511,7 +5513,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="27"/>
+      <c r="J14" s="24"/>
       <c r="K14" s="10"/>
       <c r="L14" s="15"/>
       <c r="M14" s="10"/>
@@ -5544,7 +5546,7 @@
       <c r="BF14" s="7"/>
       <c r="BG14" s="8"/>
     </row>
-    <row r="15" spans="1:60">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>123</v>
       </c>
@@ -5573,7 +5575,7 @@
       <c r="I15" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="24">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K15" s="10" t="s">
@@ -5720,7 +5722,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="16" spans="1:60">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>123</v>
       </c>
@@ -5735,7 +5737,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="15"/>
-      <c r="J16" s="27"/>
+      <c r="J16" s="24"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
@@ -5770,7 +5772,7 @@
       <c r="BF16" s="7"/>
       <c r="BG16" s="8"/>
     </row>
-    <row r="17" spans="1:59">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>124</v>
       </c>
@@ -5799,7 +5801,7 @@
       <c r="I17" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="24">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K17" s="10" t="s">
@@ -5946,7 +5948,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="18" spans="1:59">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>124</v>
       </c>
@@ -5961,7 +5963,7 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="15"/>
-      <c r="J18" s="27"/>
+      <c r="J18" s="24"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
@@ -5994,7 +5996,7 @@
       <c r="BF18" s="7"/>
       <c r="BG18" s="8"/>
     </row>
-    <row r="19" spans="1:59">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>125</v>
       </c>
@@ -6023,7 +6025,7 @@
       <c r="I19" s="11" t="s">
         <v>1103</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="25">
         <v>50</v>
       </c>
       <c r="K19" t="s">
@@ -6162,19 +6164,19 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="20" spans="1:59">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>125</v>
       </c>
       <c r="D20" s="11"/>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="21" t="s">
         <v>1121</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>923</v>
       </c>
       <c r="I20" s="11"/>
-      <c r="J20" s="28">
+      <c r="J20" s="25">
         <v>50</v>
       </c>
       <c r="K20" s="10" t="s">
@@ -6200,7 +6202,7 @@
       <c r="BF20" s="7"/>
       <c r="BG20" s="8"/>
     </row>
-    <row r="21" spans="1:59">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
         <v>126</v>
       </c>
@@ -6229,7 +6231,7 @@
       <c r="I21" s="15" t="s">
         <v>691</v>
       </c>
-      <c r="J21" s="27">
+      <c r="J21" s="24">
         <v>0.02</v>
       </c>
       <c r="K21" s="10" t="s">
@@ -6376,7 +6378,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="22" spans="1:59">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>126</v>
       </c>
@@ -6391,7 +6393,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="15"/>
-      <c r="J22" s="27"/>
+      <c r="J22" s="24"/>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
@@ -6424,7 +6426,7 @@
       <c r="BF22" s="7"/>
       <c r="BG22" s="8"/>
     </row>
-    <row r="23" spans="1:59">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>130</v>
       </c>
@@ -6453,7 +6455,7 @@
       <c r="I23" s="15" t="s">
         <v>691</v>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="24">
         <v>1.5</v>
       </c>
       <c r="K23" s="10" t="s">
@@ -6600,7 +6602,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="24" spans="1:59">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>130</v>
       </c>
@@ -6615,7 +6617,7 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="15"/>
-      <c r="J24" s="27"/>
+      <c r="J24" s="24"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
@@ -6648,7 +6650,7 @@
       <c r="BF24" s="7"/>
       <c r="BG24" s="8"/>
     </row>
-    <row r="25" spans="1:59" ht="15">
+    <row r="25" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>133</v>
       </c>
@@ -6677,7 +6679,7 @@
       <c r="I25" s="17" t="s">
         <v>1095</v>
       </c>
-      <c r="J25" s="28">
+      <c r="J25" s="25">
         <v>40000</v>
       </c>
       <c r="K25" s="14" t="s">
@@ -6814,7 +6816,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="26" spans="1:59" ht="15">
+    <row r="26" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>133</v>
       </c>
@@ -6842,7 +6844,7 @@
       <c r="BF26" s="7"/>
       <c r="BG26" s="8"/>
     </row>
-    <row r="27" spans="1:59">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>141</v>
       </c>
@@ -6936,7 +6938,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="28" spans="1:59">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>141</v>
       </c>
@@ -6955,7 +6957,7 @@
       <c r="BF28" s="7"/>
       <c r="BG28" s="8"/>
     </row>
-    <row r="29" spans="1:59" ht="15">
+    <row r="29" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>143</v>
       </c>
@@ -6984,7 +6986,7 @@
       <c r="I29" s="17" t="s">
         <v>1095</v>
       </c>
-      <c r="J29" s="28">
+      <c r="J29" s="25">
         <v>40000</v>
       </c>
       <c r="K29" s="14" t="s">
@@ -7126,7 +7128,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="30" spans="1:59" ht="15">
+    <row r="30" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>143</v>
       </c>
@@ -7151,7 +7153,7 @@
       <c r="BF30" s="7"/>
       <c r="BG30" s="8"/>
     </row>
-    <row r="31" spans="1:59" ht="15">
+    <row r="31" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>144</v>
       </c>
@@ -7180,7 +7182,7 @@
       <c r="I31" t="s">
         <v>1109</v>
       </c>
-      <c r="J31" s="28">
+      <c r="J31" s="25">
         <v>1.5</v>
       </c>
       <c r="K31" t="s">
@@ -7213,7 +7215,7 @@
       <c r="U31" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="Y31" s="29" t="s">
+      <c r="Y31" s="26" t="s">
         <v>1124</v>
       </c>
       <c r="Z31" s="10"/>
@@ -7313,7 +7315,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="32" spans="1:59">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
         <v>144</v>
       </c>
@@ -7327,7 +7329,7 @@
       <c r="H32" s="15" t="s">
         <v>922</v>
       </c>
-      <c r="J32" s="28">
+      <c r="J32" s="25">
         <v>3</v>
       </c>
       <c r="K32" s="10" t="s">
@@ -7351,18 +7353,18 @@
       <c r="BF32" s="7"/>
       <c r="BG32" s="8"/>
     </row>
-    <row r="33" spans="1:59">
+    <row r="33" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="21" t="s">
         <v>1121</v>
       </c>
       <c r="H33" s="10" t="s">
         <v>923</v>
       </c>
       <c r="I33" s="11"/>
-      <c r="J33" s="28">
+      <c r="J33" s="25">
         <v>12</v>
       </c>
       <c r="K33" s="10" t="s">
@@ -7374,7 +7376,7 @@
       <c r="BF33" s="7"/>
       <c r="BG33" s="8"/>
     </row>
-    <row r="34" spans="1:59" ht="15">
+    <row r="34" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>147</v>
       </c>
@@ -7403,7 +7405,7 @@
       <c r="I34" s="17" t="s">
         <v>1095</v>
       </c>
-      <c r="J34" s="28">
+      <c r="J34" s="25">
         <v>2.5</v>
       </c>
       <c r="K34" s="10" t="s">
@@ -7542,7 +7544,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="35" spans="1:59" ht="15">
+    <row r="35" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>147</v>
       </c>
@@ -7638,7 +7640,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="36" spans="1:59" ht="15">
+    <row r="36" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>149</v>
       </c>
@@ -7667,7 +7669,7 @@
       <c r="I36" s="17" t="s">
         <v>1095</v>
       </c>
-      <c r="J36" s="28">
+      <c r="J36" s="25">
         <v>60000</v>
       </c>
       <c r="K36" s="14" t="s">
@@ -7809,7 +7811,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="37" spans="1:59" ht="15">
+    <row r="37" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>149</v>
       </c>
@@ -7831,7 +7833,7 @@
       <c r="BF37" s="7"/>
       <c r="BG37" s="8"/>
     </row>
-    <row r="38" spans="1:59" ht="15">
+    <row r="38" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>152</v>
       </c>
@@ -7860,7 +7862,7 @@
       <c r="I38" s="11" t="s">
         <v>1111</v>
       </c>
-      <c r="J38" s="28">
+      <c r="J38" s="25">
         <v>40</v>
       </c>
       <c r="K38" t="s">
@@ -8005,7 +8007,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="39" spans="1:59" ht="15">
+    <row r="39" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>152</v>
       </c>
@@ -8022,7 +8024,7 @@
       <c r="I39" s="11" t="s">
         <v>1112</v>
       </c>
-      <c r="J39" s="28">
+      <c r="J39" s="25">
         <v>40</v>
       </c>
       <c r="K39" t="s">
@@ -8046,7 +8048,7 @@
       <c r="BF39" s="7"/>
       <c r="BG39" s="8"/>
     </row>
-    <row r="40" spans="1:59" ht="15">
+    <row r="40" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>152</v>
       </c>
@@ -8061,7 +8063,7 @@
       <c r="I40" s="11" t="s">
         <v>1126</v>
       </c>
-      <c r="J40" s="28">
+      <c r="J40" s="25">
         <v>60</v>
       </c>
       <c r="K40" s="10" t="s">
@@ -8078,19 +8080,19 @@
       <c r="BF40" s="7"/>
       <c r="BG40" s="8"/>
     </row>
-    <row r="41" spans="1:59">
+    <row r="41" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
         <v>152</v>
       </c>
       <c r="D41" s="11"/>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="21" t="s">
         <v>1121</v>
       </c>
       <c r="H41" t="s">
         <v>923</v>
       </c>
       <c r="I41" s="11"/>
-      <c r="J41" s="28">
+      <c r="J41" s="25">
         <v>75</v>
       </c>
       <c r="K41" s="10" t="s">
@@ -8103,7 +8105,7 @@
       <c r="BF41" s="7"/>
       <c r="BG41" s="8"/>
     </row>
-    <row r="42" spans="1:59" ht="15">
+    <row r="42" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>160</v>
       </c>
@@ -8136,7 +8138,7 @@
       <c r="BF42" s="7"/>
       <c r="BG42" s="8"/>
     </row>
-    <row r="43" spans="1:59" ht="15">
+    <row r="43" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>160</v>
       </c>
@@ -8223,7 +8225,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="44" spans="1:59" ht="15">
+    <row r="44" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>161</v>
       </c>
@@ -8252,7 +8254,7 @@
       <c r="I44" s="17" t="s">
         <v>1095</v>
       </c>
-      <c r="J44" s="28">
+      <c r="J44" s="25">
         <v>60000</v>
       </c>
       <c r="K44" s="14" t="s">
@@ -8394,7 +8396,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="45" spans="1:59" ht="15">
+    <row r="45" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>161</v>
       </c>
@@ -8419,7 +8421,7 @@
       <c r="BF45" s="7"/>
       <c r="BG45" s="8"/>
     </row>
-    <row r="46" spans="1:59" ht="15">
+    <row r="46" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>164</v>
       </c>
@@ -8448,7 +8450,7 @@
       <c r="I46" s="11" t="s">
         <v>1129</v>
       </c>
-      <c r="J46" s="28">
+      <c r="J46" s="25">
         <v>2</v>
       </c>
       <c r="K46" t="s">
@@ -8566,7 +8568,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="47" spans="1:59" ht="15">
+    <row r="47" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>164</v>
       </c>
@@ -8581,7 +8583,7 @@
       <c r="BF47" s="7"/>
       <c r="BG47" s="8"/>
     </row>
-    <row r="48" spans="1:59">
+    <row r="48" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>165</v>
       </c>
@@ -8663,7 +8665,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="49" spans="1:59">
+    <row r="49" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>165</v>
       </c>
@@ -8671,7 +8673,7 @@
       <c r="BF49" s="7"/>
       <c r="BG49" s="8"/>
     </row>
-    <row r="50" spans="1:59" ht="15">
+    <row r="50" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>168</v>
       </c>
@@ -8700,7 +8702,7 @@
       <c r="I50" s="17" t="s">
         <v>1095</v>
       </c>
-      <c r="J50" s="28">
+      <c r="J50" s="25">
         <v>40000</v>
       </c>
       <c r="K50" s="14" t="s">
@@ -8842,7 +8844,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="51" spans="1:59" ht="15">
+    <row r="51" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>168</v>
       </c>
@@ -8867,7 +8869,7 @@
       <c r="BF51" s="7"/>
       <c r="BG51" s="8"/>
     </row>
-    <row r="52" spans="1:59">
+    <row r="52" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>171</v>
       </c>
@@ -8949,7 +8951,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="53" spans="1:59">
+    <row r="53" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>171</v>
       </c>
@@ -8957,7 +8959,7 @@
       <c r="BF53" s="7"/>
       <c r="BG53" s="8"/>
     </row>
-    <row r="54" spans="1:59">
+    <row r="54" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>172</v>
       </c>
@@ -9039,7 +9041,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="55" spans="1:59">
+    <row r="55" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>172</v>
       </c>
@@ -9047,7 +9049,7 @@
       <c r="BF55" s="7"/>
       <c r="BG55" s="8"/>
     </row>
-    <row r="56" spans="1:59">
+    <row r="56" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
         <v>173</v>
       </c>
@@ -9129,7 +9131,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="57" spans="1:59">
+    <row r="57" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>173</v>
       </c>
@@ -9137,7 +9139,7 @@
       <c r="BF57" s="7"/>
       <c r="BG57" s="8"/>
     </row>
-    <row r="58" spans="1:59">
+    <row r="58" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
         <v>176</v>
       </c>
@@ -9219,7 +9221,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="59" spans="1:59">
+    <row r="59" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
         <v>176</v>
       </c>
@@ -9227,7 +9229,7 @@
       <c r="BF59" s="7"/>
       <c r="BG59" s="8"/>
     </row>
-    <row r="60" spans="1:59" ht="15">
+    <row r="60" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>177</v>
       </c>
@@ -9256,7 +9258,7 @@
       <c r="I60" s="11" t="s">
         <v>1111</v>
       </c>
-      <c r="J60" s="28">
+      <c r="J60" s="25">
         <v>40</v>
       </c>
       <c r="K60" t="s">
@@ -9401,7 +9403,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="61" spans="1:59" ht="15">
+    <row r="61" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>177</v>
       </c>
@@ -9418,7 +9420,7 @@
       <c r="I61" s="11" t="s">
         <v>1112</v>
       </c>
-      <c r="J61" s="28">
+      <c r="J61" s="25">
         <v>40</v>
       </c>
       <c r="K61" t="s">
@@ -9441,7 +9443,7 @@
       <c r="BF61" s="7"/>
       <c r="BG61" s="8"/>
     </row>
-    <row r="62" spans="1:59" ht="15">
+    <row r="62" spans="1:59" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>177</v>
       </c>
@@ -9456,7 +9458,7 @@
       <c r="I62" s="11" t="s">
         <v>1126</v>
       </c>
-      <c r="J62" s="28">
+      <c r="J62" s="25">
         <v>60</v>
       </c>
       <c r="K62" s="10" t="s">
@@ -9473,19 +9475,19 @@
       <c r="BF62" s="7"/>
       <c r="BG62" s="8"/>
     </row>
-    <row r="63" spans="1:59">
+    <row r="63" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
         <v>177</v>
       </c>
       <c r="D63" s="11"/>
-      <c r="G63" s="24" t="s">
+      <c r="G63" s="21" t="s">
         <v>1121</v>
       </c>
       <c r="H63" t="s">
         <v>923</v>
       </c>
       <c r="I63" s="11"/>
-      <c r="J63" s="28">
+      <c r="J63" s="25">
         <v>75</v>
       </c>
       <c r="K63" s="10" t="s">
@@ -9498,7 +9500,7 @@
       <c r="BF63" s="7"/>
       <c r="BG63" s="8"/>
     </row>
-    <row r="64" spans="1:59">
+    <row r="64" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
         <v>178</v>
       </c>
@@ -9579,14 +9581,14 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="65" spans="1:59">
+    <row r="65" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
         <v>178</v>
       </c>
       <c r="BF65" s="7"/>
       <c r="BG65" s="8"/>
     </row>
-    <row r="66" spans="1:59">
+    <row r="66" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
         <v>179</v>
       </c>
@@ -9667,14 +9669,14 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="67" spans="1:59">
+    <row r="67" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
         <v>179</v>
       </c>
       <c r="BF67" s="7"/>
       <c r="BG67" s="8"/>
     </row>
-    <row r="68" spans="1:59">
+    <row r="68" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>180</v>
       </c>
@@ -9768,14 +9770,14 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="69" spans="1:59">
+    <row r="69" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>180</v>
       </c>
       <c r="BF69" s="7"/>
       <c r="BG69" s="8"/>
     </row>
-    <row r="70" spans="1:59">
+    <row r="70" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
         <v>188</v>
       </c>
@@ -9804,13 +9806,13 @@
       <c r="I70" s="15" t="s">
         <v>1120</v>
       </c>
-      <c r="J70" s="28">
+      <c r="J70" s="25">
         <v>12.48</v>
       </c>
       <c r="K70" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="M70" s="24" t="s">
+      <c r="M70" s="21" t="s">
         <v>1134</v>
       </c>
       <c r="N70" t="s">
@@ -9946,7 +9948,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="71" spans="1:59">
+    <row r="71" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
         <v>188</v>
       </c>
@@ -9958,7 +9960,7 @@
         <v>923</v>
       </c>
       <c r="I71" s="15"/>
-      <c r="J71" s="28">
+      <c r="J71" s="25">
         <v>450</v>
       </c>
       <c r="K71" s="10" t="s">
@@ -9975,19 +9977,19 @@
       <c r="BF71" s="7"/>
       <c r="BG71" s="8"/>
     </row>
-    <row r="72" spans="1:59">
+    <row r="72" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>188</v>
       </c>
       <c r="D72" s="10"/>
-      <c r="G72" s="24" t="s">
+      <c r="G72" s="21" t="s">
         <v>1121</v>
       </c>
       <c r="H72" s="10" t="s">
         <v>923</v>
       </c>
       <c r="I72" s="11"/>
-      <c r="J72" s="28">
+      <c r="J72" s="25">
         <v>650</v>
       </c>
       <c r="K72" s="10" t="s">
@@ -10000,7 +10002,7 @@
       <c r="BF72" s="7"/>
       <c r="BG72" s="8"/>
     </row>
-    <row r="73" spans="1:59">
+    <row r="73" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>624110</v>
       </c>
@@ -10029,13 +10031,13 @@
       <c r="I73" s="15" t="s">
         <v>1120</v>
       </c>
-      <c r="J73" s="28">
+      <c r="J73" s="25">
         <v>12.48</v>
       </c>
       <c r="K73" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="M73" s="24" t="s">
+      <c r="M73" s="21" t="s">
         <v>1134</v>
       </c>
       <c r="N73" t="s">
@@ -10171,7 +10173,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="74" spans="1:59">
+    <row r="74" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>189</v>
       </c>
@@ -10183,7 +10185,7 @@
         <v>923</v>
       </c>
       <c r="I74" s="15"/>
-      <c r="J74" s="28">
+      <c r="J74" s="25">
         <v>500</v>
       </c>
       <c r="K74" s="10" t="s">
@@ -10203,7 +10205,7 @@
       <c r="BF74" s="7"/>
       <c r="BG74" s="8"/>
     </row>
-    <row r="75" spans="1:59">
+    <row r="75" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>189</v>
       </c>
@@ -10212,14 +10214,14 @@
         <v/>
       </c>
       <c r="D75" s="10"/>
-      <c r="G75" s="24" t="s">
+      <c r="G75" s="21" t="s">
         <v>1121</v>
       </c>
       <c r="H75" s="10" t="s">
         <v>923</v>
       </c>
       <c r="I75" s="11"/>
-      <c r="J75" s="28">
+      <c r="J75" s="25">
         <v>650</v>
       </c>
       <c r="K75" s="10" t="s">
@@ -10230,7 +10232,7 @@
       </c>
       <c r="M75" s="10"/>
     </row>
-    <row r="76" spans="1:59">
+    <row r="76" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>190</v>
       </c>
@@ -10255,13 +10257,13 @@
       <c r="I76" s="15" t="s">
         <v>1120</v>
       </c>
-      <c r="J76" s="28">
+      <c r="J76" s="25">
         <v>12.48</v>
       </c>
       <c r="K76" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="M76" s="24" t="s">
+      <c r="M76" s="21" t="s">
         <v>1134</v>
       </c>
       <c r="N76" t="s">
@@ -10397,7 +10399,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="77" spans="1:59">
+    <row r="77" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>190</v>
       </c>
@@ -10409,7 +10411,7 @@
         <v>923</v>
       </c>
       <c r="I77" s="15"/>
-      <c r="J77" s="28">
+      <c r="J77" s="25">
         <v>500</v>
       </c>
       <c r="K77" s="10" t="s">
@@ -10429,19 +10431,19 @@
       <c r="BF77" s="7"/>
       <c r="BG77" s="8"/>
     </row>
-    <row r="78" spans="1:59">
+    <row r="78" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>190</v>
       </c>
       <c r="D78" s="10"/>
-      <c r="G78" s="24" t="s">
+      <c r="G78" s="21" t="s">
         <v>1121</v>
       </c>
       <c r="H78" s="10" t="s">
         <v>923</v>
       </c>
       <c r="I78" s="11"/>
-      <c r="J78" s="28">
+      <c r="J78" s="25">
         <v>650</v>
       </c>
       <c r="K78" s="10" t="s">
@@ -10454,7 +10456,7 @@
       <c r="BF78" s="7"/>
       <c r="BG78" s="8"/>
     </row>
-    <row r="79" spans="1:59">
+    <row r="79" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>191</v>
       </c>
@@ -10483,13 +10485,13 @@
       <c r="I79" s="15" t="s">
         <v>1120</v>
       </c>
-      <c r="J79" s="28">
+      <c r="J79" s="25">
         <v>12.48</v>
       </c>
       <c r="K79" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="M79" s="24" t="s">
+      <c r="M79" s="21" t="s">
         <v>1134</v>
       </c>
       <c r="N79" t="s">
@@ -10625,7 +10627,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="80" spans="1:59">
+    <row r="80" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>191</v>
       </c>
@@ -10636,7 +10638,7 @@
         <v>923</v>
       </c>
       <c r="I80" s="15"/>
-      <c r="J80" s="28">
+      <c r="J80" s="25">
         <v>500</v>
       </c>
       <c r="K80" s="10" t="s">
@@ -10653,18 +10655,18 @@
       <c r="AD80" s="10"/>
       <c r="AE80" s="11"/>
     </row>
-    <row r="81" spans="1:48">
+    <row r="81" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>191</v>
       </c>
-      <c r="G81" s="24" t="s">
+      <c r="G81" s="21" t="s">
         <v>1121</v>
       </c>
       <c r="H81" s="10" t="s">
         <v>923</v>
       </c>
       <c r="I81" s="11"/>
-      <c r="J81" s="28">
+      <c r="J81" s="25">
         <v>650</v>
       </c>
       <c r="K81" s="10" t="s">
@@ -10674,7 +10676,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="82" spans="1:48" ht="15">
+    <row r="82" spans="1:48" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>148</v>
       </c>
@@ -10699,7 +10701,7 @@
       <c r="I82" s="17" t="s">
         <v>1095</v>
       </c>
-      <c r="J82" s="28">
+      <c r="J82" s="25">
         <v>2.5</v>
       </c>
       <c r="K82" s="10" t="s">
@@ -10769,7 +10771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:48" ht="15">
+    <row r="83" spans="1:48" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1</v>
       </c>
@@ -10789,41 +10791,41 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="84" spans="1:48">
+    <row r="84" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:48">
+    <row r="85" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:48">
+    <row r="86" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1</v>
       </c>
       <c r="AV86"/>
     </row>
-    <row r="87" spans="1:48">
+    <row r="87" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1</v>
       </c>
       <c r="AV87"/>
     </row>
-    <row r="88" spans="1:48">
+    <row r="88" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1</v>
       </c>
       <c r="AV88"/>
     </row>
-    <row r="89" spans="1:48">
+    <row r="89" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1</v>
       </c>
       <c r="AV89"/>
     </row>
-    <row r="90" spans="1:48">
+    <row r="90" spans="1:48" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
         <v>192</v>
       </c>
@@ -10889,7 +10891,7 @@
       </c>
       <c r="AV90"/>
     </row>
-    <row r="91" spans="1:48">
+    <row r="91" spans="1:48" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
         <v>210</v>
       </c>
@@ -10955,7 +10957,7 @@
       </c>
       <c r="AV91"/>
     </row>
-    <row r="92" spans="1:48">
+    <row r="92" spans="1:48" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
         <v>229</v>
       </c>
@@ -11018,7 +11020,7 @@
       </c>
       <c r="AV92"/>
     </row>
-    <row r="93" spans="1:48">
+    <row r="93" spans="1:48" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
         <v>248</v>
       </c>
@@ -11078,7 +11080,7 @@
       </c>
       <c r="AV93"/>
     </row>
-    <row r="94" spans="1:48">
+    <row r="94" spans="1:48" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
         <v>266</v>
       </c>
@@ -11135,7 +11137,7 @@
       </c>
       <c r="AV94"/>
     </row>
-    <row r="95" spans="1:48">
+    <row r="95" spans="1:48" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
         <v>283</v>
       </c>
@@ -11192,7 +11194,7 @@
       </c>
       <c r="AV95"/>
     </row>
-    <row r="96" spans="1:48">
+    <row r="96" spans="1:48" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
         <v>300</v>
       </c>
@@ -11249,7 +11251,7 @@
       </c>
       <c r="AV96"/>
     </row>
-    <row r="97" spans="3:48">
+    <row r="97" spans="3:48" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
         <v>317</v>
       </c>
@@ -11306,7 +11308,7 @@
       </c>
       <c r="AV97"/>
     </row>
-    <row r="98" spans="3:48">
+    <row r="98" spans="3:48" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
         <v>334</v>
       </c>
@@ -11360,7 +11362,7 @@
       </c>
       <c r="AV98"/>
     </row>
-    <row r="99" spans="3:48">
+    <row r="99" spans="3:48" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
         <v>350</v>
       </c>
@@ -11411,7 +11413,7 @@
       </c>
       <c r="AV99"/>
     </row>
-    <row r="100" spans="3:48">
+    <row r="100" spans="3:48" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
         <v>363</v>
       </c>
@@ -11459,7 +11461,7 @@
       </c>
       <c r="AV100"/>
     </row>
-    <row r="101" spans="3:48">
+    <row r="101" spans="3:48" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
         <v>376</v>
       </c>
@@ -11504,7 +11506,7 @@
       </c>
       <c r="AV101"/>
     </row>
-    <row r="102" spans="3:48">
+    <row r="102" spans="3:48" x14ac:dyDescent="0.2">
       <c r="E102" t="s">
         <v>389</v>
       </c>
@@ -11546,7 +11548,7 @@
       </c>
       <c r="AV102"/>
     </row>
-    <row r="103" spans="3:48">
+    <row r="103" spans="3:48" x14ac:dyDescent="0.2">
       <c r="E103" t="s">
         <v>400</v>
       </c>
@@ -11588,7 +11590,7 @@
       </c>
       <c r="AV103"/>
     </row>
-    <row r="104" spans="3:48">
+    <row r="104" spans="3:48" x14ac:dyDescent="0.2">
       <c r="E104" t="s">
         <v>411</v>
       </c>
@@ -11630,7 +11632,7 @@
       </c>
       <c r="AV104"/>
     </row>
-    <row r="105" spans="3:48">
+    <row r="105" spans="3:48" x14ac:dyDescent="0.2">
       <c r="E105" t="s">
         <v>422</v>
       </c>
@@ -11672,7 +11674,7 @@
       </c>
       <c r="AV105"/>
     </row>
-    <row r="106" spans="3:48">
+    <row r="106" spans="3:48" x14ac:dyDescent="0.2">
       <c r="E106" t="s">
         <v>433</v>
       </c>
@@ -11714,7 +11716,7 @@
       </c>
       <c r="AV106"/>
     </row>
-    <row r="107" spans="3:48">
+    <row r="107" spans="3:48" x14ac:dyDescent="0.2">
       <c r="E107" t="s">
         <v>444</v>
       </c>
@@ -11756,7 +11758,7 @@
       </c>
       <c r="AV107"/>
     </row>
-    <row r="108" spans="3:48">
+    <row r="108" spans="3:48" x14ac:dyDescent="0.2">
       <c r="E108" t="s">
         <v>455</v>
       </c>
@@ -11798,7 +11800,7 @@
       </c>
       <c r="AV108"/>
     </row>
-    <row r="109" spans="3:48">
+    <row r="109" spans="3:48" x14ac:dyDescent="0.2">
       <c r="F109" t="s">
         <v>466</v>
       </c>
@@ -11837,7 +11839,7 @@
       </c>
       <c r="AV109"/>
     </row>
-    <row r="110" spans="3:48">
+    <row r="110" spans="3:48" x14ac:dyDescent="0.2">
       <c r="F110" t="s">
         <v>477</v>
       </c>
@@ -11876,7 +11878,7 @@
       </c>
       <c r="AV110"/>
     </row>
-    <row r="111" spans="3:48">
+    <row r="111" spans="3:48" x14ac:dyDescent="0.2">
       <c r="F111" t="s">
         <v>488</v>
       </c>
@@ -11912,7 +11914,7 @@
       </c>
       <c r="AV111"/>
     </row>
-    <row r="112" spans="3:48">
+    <row r="112" spans="3:48" x14ac:dyDescent="0.2">
       <c r="F112" t="s">
         <v>498</v>
       </c>
@@ -11948,7 +11950,7 @@
       </c>
       <c r="AV112"/>
     </row>
-    <row r="113" spans="6:48">
+    <row r="113" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F113" t="s">
         <v>507</v>
       </c>
@@ -11984,7 +11986,7 @@
       </c>
       <c r="AV113"/>
     </row>
-    <row r="114" spans="6:48">
+    <row r="114" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F114" t="s">
         <v>517</v>
       </c>
@@ -12020,7 +12022,7 @@
       </c>
       <c r="AV114"/>
     </row>
-    <row r="115" spans="6:48">
+    <row r="115" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F115" t="s">
         <v>526</v>
       </c>
@@ -12056,7 +12058,7 @@
       </c>
       <c r="AV115"/>
     </row>
-    <row r="116" spans="6:48">
+    <row r="116" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F116" t="s">
         <v>536</v>
       </c>
@@ -12092,7 +12094,7 @@
       </c>
       <c r="AV116"/>
     </row>
-    <row r="117" spans="6:48">
+    <row r="117" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F117" t="s">
         <v>546</v>
       </c>
@@ -12125,7 +12127,7 @@
       </c>
       <c r="AV117"/>
     </row>
-    <row r="118" spans="6:48">
+    <row r="118" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F118" t="s">
         <v>555</v>
       </c>
@@ -12158,7 +12160,7 @@
       </c>
       <c r="AV118"/>
     </row>
-    <row r="119" spans="6:48">
+    <row r="119" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F119" t="s">
         <v>563</v>
       </c>
@@ -12191,7 +12193,7 @@
       </c>
       <c r="AV119"/>
     </row>
-    <row r="120" spans="6:48">
+    <row r="120" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F120" t="s">
         <v>571</v>
       </c>
@@ -12224,7 +12226,7 @@
       </c>
       <c r="AV120"/>
     </row>
-    <row r="121" spans="6:48">
+    <row r="121" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F121" t="s">
         <v>580</v>
       </c>
@@ -12257,7 +12259,7 @@
       </c>
       <c r="AV121"/>
     </row>
-    <row r="122" spans="6:48">
+    <row r="122" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F122" t="s">
         <v>589</v>
       </c>
@@ -12290,7 +12292,7 @@
       </c>
       <c r="AV122"/>
     </row>
-    <row r="123" spans="6:48">
+    <row r="123" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F123" t="s">
         <v>598</v>
       </c>
@@ -12323,7 +12325,7 @@
       </c>
       <c r="AV123"/>
     </row>
-    <row r="124" spans="6:48">
+    <row r="124" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F124" t="s">
         <v>607</v>
       </c>
@@ -12356,7 +12358,7 @@
       </c>
       <c r="AV124"/>
     </row>
-    <row r="125" spans="6:48">
+    <row r="125" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F125" t="s">
         <v>616</v>
       </c>
@@ -12389,7 +12391,7 @@
       </c>
       <c r="AV125"/>
     </row>
-    <row r="126" spans="6:48">
+    <row r="126" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F126" t="s">
         <v>625</v>
       </c>
@@ -12422,7 +12424,7 @@
       </c>
       <c r="AV126"/>
     </row>
-    <row r="127" spans="6:48">
+    <row r="127" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F127" t="s">
         <v>634</v>
       </c>
@@ -12455,7 +12457,7 @@
       </c>
       <c r="AV127"/>
     </row>
-    <row r="128" spans="6:48">
+    <row r="128" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F128" t="s">
         <v>643</v>
       </c>
@@ -12488,7 +12490,7 @@
       </c>
       <c r="AV128"/>
     </row>
-    <row r="129" spans="6:48">
+    <row r="129" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F129" t="s">
         <v>650</v>
       </c>
@@ -12521,7 +12523,7 @@
       </c>
       <c r="AV129"/>
     </row>
-    <row r="130" spans="6:48">
+    <row r="130" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F130" t="s">
         <v>658</v>
       </c>
@@ -12554,7 +12556,7 @@
       </c>
       <c r="AV130"/>
     </row>
-    <row r="131" spans="6:48">
+    <row r="131" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F131" t="s">
         <v>666</v>
       </c>
@@ -12587,7 +12589,7 @@
       </c>
       <c r="AV131"/>
     </row>
-    <row r="132" spans="6:48">
+    <row r="132" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F132" t="s">
         <v>674</v>
       </c>
@@ -12617,7 +12619,7 @@
       </c>
       <c r="AV132"/>
     </row>
-    <row r="133" spans="6:48">
+    <row r="133" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F133" t="s">
         <v>681</v>
       </c>
@@ -12647,7 +12649,7 @@
       </c>
       <c r="AV133"/>
     </row>
-    <row r="134" spans="6:48">
+    <row r="134" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F134" t="s">
         <v>688</v>
       </c>
@@ -12677,7 +12679,7 @@
       </c>
       <c r="AV134"/>
     </row>
-    <row r="135" spans="6:48">
+    <row r="135" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F135" t="s">
         <v>695</v>
       </c>
@@ -12704,7 +12706,7 @@
       </c>
       <c r="AV135"/>
     </row>
-    <row r="136" spans="6:48">
+    <row r="136" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F136" t="s">
         <v>701</v>
       </c>
@@ -12731,7 +12733,7 @@
       </c>
       <c r="AV136"/>
     </row>
-    <row r="137" spans="6:48">
+    <row r="137" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F137" t="s">
         <v>707</v>
       </c>
@@ -12758,7 +12760,7 @@
       </c>
       <c r="AV137"/>
     </row>
-    <row r="138" spans="6:48">
+    <row r="138" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F138" t="s">
         <v>713</v>
       </c>
@@ -12785,7 +12787,7 @@
       </c>
       <c r="AV138"/>
     </row>
-    <row r="139" spans="6:48">
+    <row r="139" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F139" t="s">
         <v>719</v>
       </c>
@@ -12809,7 +12811,7 @@
       </c>
       <c r="AV139"/>
     </row>
-    <row r="140" spans="6:48">
+    <row r="140" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F140" t="s">
         <v>724</v>
       </c>
@@ -12833,7 +12835,7 @@
       </c>
       <c r="AV140"/>
     </row>
-    <row r="141" spans="6:48">
+    <row r="141" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F141" t="s">
         <v>729</v>
       </c>
@@ -12857,7 +12859,7 @@
       </c>
       <c r="AV141"/>
     </row>
-    <row r="142" spans="6:48">
+    <row r="142" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F142" t="s">
         <v>734</v>
       </c>
@@ -12881,7 +12883,7 @@
       </c>
       <c r="AV142"/>
     </row>
-    <row r="143" spans="6:48">
+    <row r="143" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F143" t="s">
         <v>739</v>
       </c>
@@ -12905,7 +12907,7 @@
       </c>
       <c r="AV143"/>
     </row>
-    <row r="144" spans="6:48">
+    <row r="144" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F144" t="s">
         <v>744</v>
       </c>
@@ -12929,7 +12931,7 @@
       </c>
       <c r="AV144"/>
     </row>
-    <row r="145" spans="6:48">
+    <row r="145" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F145" t="s">
         <v>749</v>
       </c>
@@ -12953,7 +12955,7 @@
       </c>
       <c r="AV145"/>
     </row>
-    <row r="146" spans="6:48">
+    <row r="146" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F146" t="s">
         <v>753</v>
       </c>
@@ -12977,7 +12979,7 @@
       </c>
       <c r="AV146"/>
     </row>
-    <row r="147" spans="6:48">
+    <row r="147" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F147" t="s">
         <v>757</v>
       </c>
@@ -13001,7 +13003,7 @@
       </c>
       <c r="AV147"/>
     </row>
-    <row r="148" spans="6:48">
+    <row r="148" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F148" t="s">
         <v>761</v>
       </c>
@@ -13025,7 +13027,7 @@
       </c>
       <c r="AV148"/>
     </row>
-    <row r="149" spans="6:48">
+    <row r="149" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F149" t="s">
         <v>765</v>
       </c>
@@ -13049,7 +13051,7 @@
       </c>
       <c r="AV149"/>
     </row>
-    <row r="150" spans="6:48">
+    <row r="150" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F150" t="s">
         <v>769</v>
       </c>
@@ -13073,7 +13075,7 @@
       </c>
       <c r="AV150"/>
     </row>
-    <row r="151" spans="6:48">
+    <row r="151" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F151" t="s">
         <v>773</v>
       </c>
@@ -13097,7 +13099,7 @@
       </c>
       <c r="AV151"/>
     </row>
-    <row r="152" spans="6:48">
+    <row r="152" spans="6:48" x14ac:dyDescent="0.2">
       <c r="F152" t="s">
         <v>777</v>
       </c>
@@ -13121,7 +13123,7 @@
       </c>
       <c r="AV152"/>
     </row>
-    <row r="153" spans="6:48">
+    <row r="153" spans="6:48" x14ac:dyDescent="0.2">
       <c r="H153" t="s">
         <v>781</v>
       </c>
@@ -13139,7 +13141,7 @@
       </c>
       <c r="AV153"/>
     </row>
-    <row r="154" spans="6:48">
+    <row r="154" spans="6:48" x14ac:dyDescent="0.2">
       <c r="H154" t="s">
         <v>784</v>
       </c>
@@ -13157,7 +13159,7 @@
       </c>
       <c r="AV154"/>
     </row>
-    <row r="155" spans="6:48">
+    <row r="155" spans="6:48" x14ac:dyDescent="0.2">
       <c r="H155" t="s">
         <v>787</v>
       </c>
@@ -13175,7 +13177,7 @@
       </c>
       <c r="AV155"/>
     </row>
-    <row r="156" spans="6:48">
+    <row r="156" spans="6:48" x14ac:dyDescent="0.2">
       <c r="H156" t="s">
         <v>790</v>
       </c>
@@ -13193,7 +13195,7 @@
       </c>
       <c r="AV156"/>
     </row>
-    <row r="157" spans="6:48">
+    <row r="157" spans="6:48" x14ac:dyDescent="0.2">
       <c r="H157" t="s">
         <v>794</v>
       </c>
@@ -13208,7 +13210,7 @@
       </c>
       <c r="AV157"/>
     </row>
-    <row r="158" spans="6:48">
+    <row r="158" spans="6:48" x14ac:dyDescent="0.2">
       <c r="H158" t="s">
         <v>797</v>
       </c>
@@ -13223,7 +13225,7 @@
       </c>
       <c r="AV158"/>
     </row>
-    <row r="159" spans="6:48">
+    <row r="159" spans="6:48" x14ac:dyDescent="0.2">
       <c r="H159" t="s">
         <v>799</v>
       </c>
@@ -13238,7 +13240,7 @@
       </c>
       <c r="AV159"/>
     </row>
-    <row r="160" spans="6:48">
+    <row r="160" spans="6:48" x14ac:dyDescent="0.2">
       <c r="H160" t="s">
         <v>802</v>
       </c>
@@ -13253,7 +13255,7 @@
       </c>
       <c r="AV160"/>
     </row>
-    <row r="161" spans="8:48">
+    <row r="161" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H161" t="s">
         <v>805</v>
       </c>
@@ -13265,7 +13267,7 @@
       </c>
       <c r="AV161"/>
     </row>
-    <row r="162" spans="8:48">
+    <row r="162" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H162" t="s">
         <v>807</v>
       </c>
@@ -13277,7 +13279,7 @@
       </c>
       <c r="AV162"/>
     </row>
-    <row r="163" spans="8:48">
+    <row r="163" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H163" t="s">
         <v>808</v>
       </c>
@@ -13289,7 +13291,7 @@
       </c>
       <c r="AV163"/>
     </row>
-    <row r="164" spans="8:48">
+    <row r="164" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H164" t="s">
         <v>809</v>
       </c>
@@ -13301,7 +13303,7 @@
       </c>
       <c r="AV164"/>
     </row>
-    <row r="165" spans="8:48">
+    <row r="165" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H165" t="s">
         <v>811</v>
       </c>
@@ -13313,7 +13315,7 @@
       </c>
       <c r="AV165"/>
     </row>
-    <row r="166" spans="8:48">
+    <row r="166" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H166" t="s">
         <v>813</v>
       </c>
@@ -13325,7 +13327,7 @@
       </c>
       <c r="AV166"/>
     </row>
-    <row r="167" spans="8:48">
+    <row r="167" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H167" t="s">
         <v>815</v>
       </c>
@@ -13337,7 +13339,7 @@
       </c>
       <c r="AV167"/>
     </row>
-    <row r="168" spans="8:48">
+    <row r="168" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H168" t="s">
         <v>817</v>
       </c>
@@ -13349,7 +13351,7 @@
       </c>
       <c r="AV168"/>
     </row>
-    <row r="169" spans="8:48">
+    <row r="169" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H169" t="s">
         <v>819</v>
       </c>
@@ -13361,7 +13363,7 @@
       </c>
       <c r="AV169"/>
     </row>
-    <row r="170" spans="8:48">
+    <row r="170" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H170" t="s">
         <v>821</v>
       </c>
@@ -13373,7 +13375,7 @@
       </c>
       <c r="AV170"/>
     </row>
-    <row r="171" spans="8:48">
+    <row r="171" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H171" t="s">
         <v>823</v>
       </c>
@@ -13385,7 +13387,7 @@
       </c>
       <c r="AV171"/>
     </row>
-    <row r="172" spans="8:48">
+    <row r="172" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H172" t="s">
         <v>825</v>
       </c>
@@ -13397,7 +13399,7 @@
       </c>
       <c r="AV172"/>
     </row>
-    <row r="173" spans="8:48">
+    <row r="173" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H173" t="s">
         <v>826</v>
       </c>
@@ -13409,7 +13411,7 @@
       </c>
       <c r="AV173"/>
     </row>
-    <row r="174" spans="8:48">
+    <row r="174" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H174" t="s">
         <v>827</v>
       </c>
@@ -13421,7 +13423,7 @@
       </c>
       <c r="AV174"/>
     </row>
-    <row r="175" spans="8:48">
+    <row r="175" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H175" t="s">
         <v>828</v>
       </c>
@@ -13433,7 +13435,7 @@
       </c>
       <c r="AV175"/>
     </row>
-    <row r="176" spans="8:48">
+    <row r="176" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H176" t="s">
         <v>829</v>
       </c>
@@ -13445,7 +13447,7 @@
       </c>
       <c r="AV176"/>
     </row>
-    <row r="177" spans="8:48">
+    <row r="177" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H177" t="s">
         <v>830</v>
       </c>
@@ -13457,7 +13459,7 @@
       </c>
       <c r="AV177"/>
     </row>
-    <row r="178" spans="8:48">
+    <row r="178" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H178" t="s">
         <v>831</v>
       </c>
@@ -13469,7 +13471,7 @@
       </c>
       <c r="AV178"/>
     </row>
-    <row r="179" spans="8:48">
+    <row r="179" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H179" t="s">
         <v>832</v>
       </c>
@@ -13481,7 +13483,7 @@
       </c>
       <c r="AV179"/>
     </row>
-    <row r="180" spans="8:48">
+    <row r="180" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H180" t="s">
         <v>833</v>
       </c>
@@ -13493,7 +13495,7 @@
       </c>
       <c r="AV180"/>
     </row>
-    <row r="181" spans="8:48">
+    <row r="181" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H181" t="s">
         <v>834</v>
       </c>
@@ -13505,7 +13507,7 @@
       </c>
       <c r="AV181"/>
     </row>
-    <row r="182" spans="8:48">
+    <row r="182" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H182" t="s">
         <v>835</v>
       </c>
@@ -13517,7 +13519,7 @@
       </c>
       <c r="AV182"/>
     </row>
-    <row r="183" spans="8:48">
+    <row r="183" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H183" t="s">
         <v>836</v>
       </c>
@@ -13529,7 +13531,7 @@
       </c>
       <c r="AV183"/>
     </row>
-    <row r="184" spans="8:48">
+    <row r="184" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H184" t="s">
         <v>837</v>
       </c>
@@ -13541,7 +13543,7 @@
       </c>
       <c r="AV184"/>
     </row>
-    <row r="185" spans="8:48">
+    <row r="185" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H185" t="s">
         <v>838</v>
       </c>
@@ -13553,7 +13555,7 @@
       </c>
       <c r="AV185"/>
     </row>
-    <row r="186" spans="8:48">
+    <row r="186" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H186" t="s">
         <v>839</v>
       </c>
@@ -13565,7 +13567,7 @@
       </c>
       <c r="AV186"/>
     </row>
-    <row r="187" spans="8:48">
+    <row r="187" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H187" t="s">
         <v>840</v>
       </c>
@@ -13577,7 +13579,7 @@
       </c>
       <c r="AV187"/>
     </row>
-    <row r="188" spans="8:48">
+    <row r="188" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H188" t="s">
         <v>841</v>
       </c>
@@ -13589,7 +13591,7 @@
       </c>
       <c r="AV188"/>
     </row>
-    <row r="189" spans="8:48">
+    <row r="189" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H189" t="s">
         <v>842</v>
       </c>
@@ -13601,7 +13603,7 @@
       </c>
       <c r="AV189"/>
     </row>
-    <row r="190" spans="8:48">
+    <row r="190" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H190" t="s">
         <v>843</v>
       </c>
@@ -13613,7 +13615,7 @@
       </c>
       <c r="AV190"/>
     </row>
-    <row r="191" spans="8:48">
+    <row r="191" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H191" t="s">
         <v>844</v>
       </c>
@@ -13625,7 +13627,7 @@
       </c>
       <c r="AV191"/>
     </row>
-    <row r="192" spans="8:48">
+    <row r="192" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H192" t="s">
         <v>845</v>
       </c>
@@ -13637,7 +13639,7 @@
       </c>
       <c r="AV192"/>
     </row>
-    <row r="193" spans="8:48">
+    <row r="193" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H193" t="s">
         <v>846</v>
       </c>
@@ -13649,7 +13651,7 @@
       </c>
       <c r="AV193"/>
     </row>
-    <row r="194" spans="8:48">
+    <row r="194" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H194" t="s">
         <v>847</v>
       </c>
@@ -13661,7 +13663,7 @@
       </c>
       <c r="AV194"/>
     </row>
-    <row r="195" spans="8:48">
+    <row r="195" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H195" t="s">
         <v>848</v>
       </c>
@@ -13673,7 +13675,7 @@
       </c>
       <c r="AV195"/>
     </row>
-    <row r="196" spans="8:48">
+    <row r="196" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H196" t="s">
         <v>849</v>
       </c>
@@ -13685,7 +13687,7 @@
       </c>
       <c r="AV196"/>
     </row>
-    <row r="197" spans="8:48">
+    <row r="197" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H197" t="s">
         <v>850</v>
       </c>
@@ -13697,7 +13699,7 @@
       </c>
       <c r="AV197"/>
     </row>
-    <row r="198" spans="8:48">
+    <row r="198" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H198" t="s">
         <v>851</v>
       </c>
@@ -13709,7 +13711,7 @@
       </c>
       <c r="AV198"/>
     </row>
-    <row r="199" spans="8:48">
+    <row r="199" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H199" t="s">
         <v>852</v>
       </c>
@@ -13721,7 +13723,7 @@
       </c>
       <c r="AV199"/>
     </row>
-    <row r="200" spans="8:48">
+    <row r="200" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H200" t="s">
         <v>853</v>
       </c>
@@ -13733,7 +13735,7 @@
       </c>
       <c r="AV200"/>
     </row>
-    <row r="201" spans="8:48">
+    <row r="201" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H201" t="s">
         <v>855</v>
       </c>
@@ -13745,7 +13747,7 @@
       </c>
       <c r="AV201"/>
     </row>
-    <row r="202" spans="8:48">
+    <row r="202" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H202" t="s">
         <v>857</v>
       </c>
@@ -13757,7 +13759,7 @@
       </c>
       <c r="AV202"/>
     </row>
-    <row r="203" spans="8:48">
+    <row r="203" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H203" t="s">
         <v>859</v>
       </c>
@@ -13769,7 +13771,7 @@
       </c>
       <c r="AV203"/>
     </row>
-    <row r="204" spans="8:48">
+    <row r="204" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H204" t="s">
         <v>861</v>
       </c>
@@ -13781,7 +13783,7 @@
       </c>
       <c r="AV204"/>
     </row>
-    <row r="205" spans="8:48">
+    <row r="205" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H205" t="s">
         <v>863</v>
       </c>
@@ -13793,7 +13795,7 @@
       </c>
       <c r="AV205"/>
     </row>
-    <row r="206" spans="8:48">
+    <row r="206" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H206" t="s">
         <v>865</v>
       </c>
@@ -13805,7 +13807,7 @@
       </c>
       <c r="AV206"/>
     </row>
-    <row r="207" spans="8:48">
+    <row r="207" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H207" t="s">
         <v>866</v>
       </c>
@@ -13817,7 +13819,7 @@
       </c>
       <c r="AV207"/>
     </row>
-    <row r="208" spans="8:48">
+    <row r="208" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H208" t="s">
         <v>867</v>
       </c>
@@ -13829,7 +13831,7 @@
       </c>
       <c r="AV208"/>
     </row>
-    <row r="209" spans="8:48">
+    <row r="209" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H209" t="s">
         <v>868</v>
       </c>
@@ -13841,7 +13843,7 @@
       </c>
       <c r="AV209"/>
     </row>
-    <row r="210" spans="8:48">
+    <row r="210" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H210" t="s">
         <v>869</v>
       </c>
@@ -13853,7 +13855,7 @@
       </c>
       <c r="AV210"/>
     </row>
-    <row r="211" spans="8:48">
+    <row r="211" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H211" t="s">
         <v>870</v>
       </c>
@@ -13865,7 +13867,7 @@
       </c>
       <c r="AV211"/>
     </row>
-    <row r="212" spans="8:48">
+    <row r="212" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H212" t="s">
         <v>872</v>
       </c>
@@ -13877,7 +13879,7 @@
       </c>
       <c r="AV212"/>
     </row>
-    <row r="213" spans="8:48">
+    <row r="213" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H213" t="s">
         <v>874</v>
       </c>
@@ -13889,7 +13891,7 @@
       </c>
       <c r="AV213"/>
     </row>
-    <row r="214" spans="8:48">
+    <row r="214" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H214" t="s">
         <v>876</v>
       </c>
@@ -13901,7 +13903,7 @@
       </c>
       <c r="AV214"/>
     </row>
-    <row r="215" spans="8:48">
+    <row r="215" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H215" t="s">
         <v>878</v>
       </c>
@@ -13913,7 +13915,7 @@
       </c>
       <c r="AV215"/>
     </row>
-    <row r="216" spans="8:48">
+    <row r="216" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H216" t="s">
         <v>880</v>
       </c>
@@ -13925,7 +13927,7 @@
       </c>
       <c r="AV216"/>
     </row>
-    <row r="217" spans="8:48">
+    <row r="217" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H217" t="s">
         <v>882</v>
       </c>
@@ -13937,7 +13939,7 @@
       </c>
       <c r="AV217"/>
     </row>
-    <row r="218" spans="8:48">
+    <row r="218" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H218" t="s">
         <v>884</v>
       </c>
@@ -13949,7 +13951,7 @@
       </c>
       <c r="AV218"/>
     </row>
-    <row r="219" spans="8:48">
+    <row r="219" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H219" t="s">
         <v>886</v>
       </c>
@@ -13961,7 +13963,7 @@
       </c>
       <c r="AV219"/>
     </row>
-    <row r="220" spans="8:48">
+    <row r="220" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H220" t="s">
         <v>888</v>
       </c>
@@ -13973,7 +13975,7 @@
       </c>
       <c r="AV220"/>
     </row>
-    <row r="221" spans="8:48">
+    <row r="221" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H221" t="s">
         <v>890</v>
       </c>
@@ -13985,7 +13987,7 @@
       </c>
       <c r="AV221"/>
     </row>
-    <row r="222" spans="8:48">
+    <row r="222" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H222" t="s">
         <v>892</v>
       </c>
@@ -13994,7 +13996,7 @@
       </c>
       <c r="AV222"/>
     </row>
-    <row r="223" spans="8:48">
+    <row r="223" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H223" t="s">
         <v>893</v>
       </c>
@@ -14003,7 +14005,7 @@
       </c>
       <c r="AV223"/>
     </row>
-    <row r="224" spans="8:48">
+    <row r="224" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H224" t="s">
         <v>894</v>
       </c>
@@ -14012,7 +14014,7 @@
       </c>
       <c r="AV224"/>
     </row>
-    <row r="225" spans="8:48">
+    <row r="225" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H225" t="s">
         <v>895</v>
       </c>
@@ -14021,7 +14023,7 @@
       </c>
       <c r="AV225"/>
     </row>
-    <row r="226" spans="8:48">
+    <row r="226" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H226" t="s">
         <v>896</v>
       </c>
@@ -14030,169 +14032,169 @@
       </c>
       <c r="AV226"/>
     </row>
-    <row r="227" spans="8:48">
+    <row r="227" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H227" t="s">
         <v>897</v>
       </c>
       <c r="AV227"/>
     </row>
-    <row r="228" spans="8:48">
+    <row r="228" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H228" t="s">
         <v>898</v>
       </c>
       <c r="AV228"/>
     </row>
-    <row r="229" spans="8:48">
+    <row r="229" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H229" t="s">
         <v>899</v>
       </c>
       <c r="AV229"/>
     </row>
-    <row r="230" spans="8:48">
+    <row r="230" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H230" t="s">
         <v>900</v>
       </c>
       <c r="AV230"/>
     </row>
-    <row r="231" spans="8:48">
+    <row r="231" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H231" t="s">
         <v>901</v>
       </c>
       <c r="AV231"/>
     </row>
-    <row r="232" spans="8:48">
+    <row r="232" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H232" t="s">
         <v>902</v>
       </c>
       <c r="AV232"/>
     </row>
-    <row r="233" spans="8:48">
+    <row r="233" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H233" t="s">
         <v>903</v>
       </c>
       <c r="AV233"/>
     </row>
-    <row r="234" spans="8:48">
+    <row r="234" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H234" t="s">
         <v>897</v>
       </c>
       <c r="AV234"/>
     </row>
-    <row r="235" spans="8:48">
+    <row r="235" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H235" t="s">
         <v>904</v>
       </c>
       <c r="AV235"/>
     </row>
-    <row r="236" spans="8:48">
+    <row r="236" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H236" t="s">
         <v>905</v>
       </c>
       <c r="AV236"/>
     </row>
-    <row r="237" spans="8:48">
+    <row r="237" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H237" t="s">
         <v>906</v>
       </c>
       <c r="AV237"/>
     </row>
-    <row r="238" spans="8:48">
+    <row r="238" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H238" t="s">
         <v>907</v>
       </c>
       <c r="AV238"/>
     </row>
-    <row r="239" spans="8:48">
+    <row r="239" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H239" t="s">
         <v>908</v>
       </c>
       <c r="AV239"/>
     </row>
-    <row r="240" spans="8:48">
+    <row r="240" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H240" t="s">
         <v>909</v>
       </c>
       <c r="AV240"/>
     </row>
-    <row r="241" spans="8:48">
+    <row r="241" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H241" t="s">
         <v>910</v>
       </c>
       <c r="AV241"/>
     </row>
-    <row r="242" spans="8:48">
+    <row r="242" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H242" t="s">
         <v>911</v>
       </c>
       <c r="AV242"/>
     </row>
-    <row r="243" spans="8:48">
+    <row r="243" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H243" t="s">
         <v>912</v>
       </c>
       <c r="AV243"/>
     </row>
-    <row r="244" spans="8:48">
+    <row r="244" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H244" t="s">
         <v>913</v>
       </c>
       <c r="AV244"/>
     </row>
-    <row r="245" spans="8:48">
+    <row r="245" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H245" t="s">
         <v>914</v>
       </c>
       <c r="AV245"/>
     </row>
-    <row r="246" spans="8:48">
+    <row r="246" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H246" t="s">
         <v>915</v>
       </c>
       <c r="AV246"/>
     </row>
-    <row r="247" spans="8:48">
+    <row r="247" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H247" t="s">
         <v>916</v>
       </c>
       <c r="AV247"/>
     </row>
-    <row r="248" spans="8:48">
+    <row r="248" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H248" t="s">
         <v>917</v>
       </c>
       <c r="AV248"/>
     </row>
-    <row r="249" spans="8:48">
+    <row r="249" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H249" t="s">
         <v>918</v>
       </c>
       <c r="AV249"/>
     </row>
-    <row r="250" spans="8:48">
+    <row r="250" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H250" t="s">
         <v>919</v>
       </c>
       <c r="AV250"/>
     </row>
-    <row r="251" spans="8:48">
+    <row r="251" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H251" t="s">
         <v>920</v>
       </c>
       <c r="AV251"/>
     </row>
-    <row r="252" spans="8:48">
+    <row r="252" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H252" t="s">
         <v>921</v>
       </c>
       <c r="AV252"/>
     </row>
-    <row r="253" spans="8:48">
+    <row r="253" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H253" t="s">
         <v>922</v>
       </c>
       <c r="AV253"/>
     </row>
-    <row r="254" spans="8:48">
+    <row r="254" spans="8:48" x14ac:dyDescent="0.2">
       <c r="H254" t="s">
         <v>923</v>
       </c>
